--- a/Architecture/System Architecture Tracker.xlsx
+++ b/Architecture/System Architecture Tracker.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Upskill\UPbank\documentation\Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="452" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="452" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UseCases" sheetId="1" r:id="rId1"/>
     <sheet name="Requirements" sheetId="2" r:id="rId2"/>
     <sheet name="Diagram ER" sheetId="4" r:id="rId3"/>
     <sheet name="Sitemap" sheetId="5" r:id="rId4"/>
-    <sheet name="Local" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="API REST" sheetId="6" r:id="rId5"/>
+    <sheet name="Local" sheetId="3" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -434,9 +435,6 @@
     <t>Use of Pages</t>
   </si>
   <si>
-    <t>errors</t>
-  </si>
-  <si>
     <t>Sitemap status</t>
   </si>
   <si>
@@ -513,13 +511,37 @@
   </si>
   <si>
     <t>1. Login/Register -&gt; 2.Overview (Account Mng) -&gt; 3.Bank Assistant -&gt; 4. Change Account Information</t>
+  </si>
+  <si>
+    <t>Account, Address, Cards, Transfers</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Transfers</t>
+  </si>
+  <si>
+    <t>Account, Transfers</t>
+  </si>
+  <si>
+    <t>Account, Transfers, TelcoProviders</t>
+  </si>
+  <si>
+    <t>Account, StandingOrder</t>
+  </si>
+  <si>
+    <t>Account, DirectDebit</t>
+  </si>
+  <si>
+    <t>Account, Cards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -574,6 +596,17 @@
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -701,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -804,12 +837,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -955,26 +1069,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1020,6 +1117,23 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1049,19 +1163,22 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1077,21 +1194,18 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1451,10 +1565,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1740,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1706,7 +1820,7 @@
         <v>60</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1860,7 +1974,7 @@
         <v>126</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -1878,7 +1992,7 @@
         <v>126</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -1916,7 +2030,7 @@
         <v>60</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -1936,7 +2050,7 @@
         <v>60</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -1956,7 +2070,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -1976,12 +2090,12 @@
         <v>60</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G3 D2:F26">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>$E$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1995,7 +2109,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{D54218EA-D9D0-4DE0-B558-34B9CEAAD548}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{D67B2068-C3E0-4347-B23D-8386A41FF624}">
+            <xm:f>Local!$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{81DD75E1-3EA5-49D7-BA03-C744689822EF}">
             <xm:f>Local!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -2004,6 +2128,19 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{3BF9239E-DE8F-4609-9228-7D06CFDAA4C9}">
+            <xm:f>Local!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -2021,20 +2158,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{3BF9239E-DE8F-4609-9228-7D06CFDAA4C9}">
-            <xm:f>Local!$B$5</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C6500"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{81DD75E1-3EA5-49D7-BA03-C744689822EF}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{D54218EA-D9D0-4DE0-B558-34B9CEAAD548}">
             <xm:f>Local!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -2043,16 +2167,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{D67B2068-C3E0-4347-B23D-8386A41FF624}">
-            <xm:f>Local!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -2109,12 +2223,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2130,7 +2244,7 @@
     <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="32" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2176,7 +2290,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>67</v>
       </c>
@@ -2197,7 +2311,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>69</v>
       </c>
@@ -2218,7 +2332,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>71</v>
       </c>
@@ -2239,7 +2353,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>73</v>
       </c>
@@ -2260,7 +2374,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>75</v>
       </c>
@@ -2281,7 +2395,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>2</v>
       </c>
@@ -2304,7 +2418,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>79</v>
       </c>
@@ -2325,7 +2439,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>3</v>
       </c>
@@ -2346,7 +2460,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>82</v>
       </c>
@@ -2367,7 +2481,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>84</v>
       </c>
@@ -2388,7 +2502,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>86</v>
       </c>
@@ -2409,7 +2523,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>4</v>
       </c>
@@ -2429,11 +2543,8 @@
       <c r="G14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>5</v>
       </c>
@@ -2454,7 +2565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
@@ -2475,7 +2586,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>6</v>
       </c>
@@ -2538,7 +2649,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>7</v>
       </c>
@@ -2580,7 +2691,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>8</v>
       </c>
@@ -2598,7 +2709,7 @@
         <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2681,7 +2792,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>9</v>
       </c>
@@ -2699,10 +2810,10 @@
         <v>60</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>48</v>
       </c>
@@ -2809,7 +2920,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>12</v>
       </c>
@@ -2876,7 +2987,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>113</v>
       </c>
@@ -3004,7 +3115,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>21</v>
       </c>
@@ -3027,7 +3138,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:G41">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>$E$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3041,6 +3152,29 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{BCC7E908-4622-4AF4-BFE0-2EFA9E97C411}">
+            <xm:f>Local!$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{141B04AA-7811-4F38-87DC-58A556AA7403}">
+            <xm:f>Local!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <x14:cfRule type="cellIs" priority="6" operator="equal" id="{DBD56182-088D-4A6A-BB05-E0847529A426}">
             <xm:f>Local!$B$5</xm:f>
             <x14:dxf>
@@ -3080,7 +3214,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{141B04AA-7811-4F38-87DC-58A556AA7403}">
+          <xm:sqref>E2:G41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{0835AE25-0FBD-47D3-8CC5-B12130B41A33}">
             <xm:f>Local!$B$3</xm:f>
             <x14:dxf>
               <font>
@@ -3093,38 +3230,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{BCC7E908-4622-4AF4-BFE0-2EFA9E97C411}">
-            <xm:f>Local!$B$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E2:G41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{26968C56-3EC5-4AFB-B39F-F9ED60460592}">
             <xm:f>Local!$B$6</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
                   <bgColor theme="0" tint="-0.14996795556505021"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{0835AE25-0FBD-47D3-8CC5-B12130B41A33}">
-            <xm:f>Local!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -3165,350 +3276,489 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="60" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="107" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="107" style="42" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" s="41" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="40" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="str">
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="str">
         <f>UseCases!E2</f>
         <v>Completed</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C3" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9" t="str">
         <f>UseCases!E3</f>
         <v>N/A</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E3" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="7">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="str">
         <f>UseCases!E4</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E4" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="str">
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="str">
         <f>UseCases!E5</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E5" s="43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="7">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="str">
         <f>UseCases!E6</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E6" s="43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="str">
-        <f>UseCases!E7</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9" t="str">
         <f>UseCases!E8</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E8" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9" t="str">
         <f>UseCases!E9</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E9" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="str">
         <f>UseCases!E10</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E10" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9" t="str">
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="9" t="str">
         <f>UseCases!E11</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E11" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9" t="str">
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9" t="str">
         <f>UseCases!E12</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E12" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="7">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="str">
         <f>UseCases!E13</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E13" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9" t="str">
         <f>UseCases!E14</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E14" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="9" t="str">
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="9" t="str">
         <f>UseCases!E15</f>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E15" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="9" t="str">
+      <c r="C16" s="7">
+        <v>18</v>
+      </c>
+      <c r="D16" s="9" t="str">
         <f>UseCases!E16</f>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E16" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>7</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="9" t="str">
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="str">
         <f>UseCases!E17</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E17" s="43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="9" t="str">
+      <c r="C18" s="7"/>
+      <c r="D18" s="9" t="str">
         <f>UseCases!E18</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E18" s="43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>8</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="9" t="str">
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="9" t="str">
         <f>UseCases!E19</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E19" s="43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="9" t="str">
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="str">
         <f>UseCases!E20</f>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E20" s="43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="9" t="str">
+      <c r="C21" s="7"/>
+      <c r="D21" s="9" t="str">
         <f>UseCases!E21</f>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E21" s="43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="9" t="str">
+      <c r="C22" s="7">
+        <v>20</v>
+      </c>
+      <c r="D22" s="9" t="str">
         <f>UseCases!E22</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E22" s="43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>9</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="9" t="str">
+      <c r="C23" s="7"/>
+      <c r="D23" s="9" t="str">
         <f>UseCases!E23</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E23" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="9" t="str">
+      <c r="C24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9" t="str">
         <f>UseCases!E24</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E24" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="9" t="str">
+      <c r="C25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="9" t="str">
         <f>UseCases!E25</f>
         <v>Completed</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E25" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>10</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="9" t="str">
+      <c r="C26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="9" t="str">
         <f>UseCases!E26</f>
         <v>Completed</v>
       </c>
+      <c r="E26" s="43" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C26">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
-      <formula>$E$2</formula>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>$F$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3575,7 +3825,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:C26</xm:sqref>
+          <xm:sqref>D2:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="3" operator="equal" id="{D54C6BEE-E692-4C7A-9D73-0DC9736F1144}">
@@ -3591,7 +3841,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C2:C26</xm:sqref>
+          <xm:sqref>D2:D26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3601,7 +3851,7 @@
           <x14:formula1>
             <xm:f>Local!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C26</xm:sqref>
+          <xm:sqref>D2:D26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3613,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -3637,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>131</v>
@@ -3658,7 +3908,7 @@
         <v>Completed</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3676,7 +3926,7 @@
         <v>Completed</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3694,7 +3944,7 @@
         <v>Completed</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3712,7 +3962,7 @@
         <v>Completed</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3730,7 +3980,7 @@
         <v>Completed</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3748,7 +3998,7 @@
         <v>Completed</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3766,7 +4016,7 @@
         <v>Completed</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3784,7 +4034,7 @@
         <v>Completed</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3802,7 +4052,7 @@
         <v>Completed</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3820,7 +4070,7 @@
         <v>Completed</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3838,7 +4088,7 @@
         <v>Completed</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3856,7 +4106,7 @@
         <v>Completed</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3874,7 +4124,7 @@
         <v>Completed</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3892,7 +4142,7 @@
         <v>Completed</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3910,7 +4160,7 @@
         <v>Completed</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3926,7 +4176,7 @@
         <v>Completed</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3942,7 +4192,7 @@
         <v>Completed</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3960,7 +4210,7 @@
         <v>Completed</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3976,7 +4226,7 @@
         <v>Completed</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3992,7 +4242,7 @@
         <v>Completed</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -4010,7 +4260,7 @@
         <v>Completed</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -4026,7 +4276,7 @@
         <v>Completed</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -4044,7 +4294,7 @@
         <v>Completed</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -4062,7 +4312,7 @@
         <v>Completed</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -4080,12 +4330,12 @@
         <v>Completed</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D26">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>$E$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4193,6 +4443,543 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="78.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>8</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="7">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>9</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D41">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>$E$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{A8365AEE-05EF-4A60-A48F-9F6FB83A925B}">
+            <xm:f>Local!$B$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{E9D1F14B-35C7-4098-8E47-F9EFEB2B3311}">
+            <xm:f>Local!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{4E371E6A-2552-480B-9A07-E3042560030E}">
+            <xm:f>Local!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{BB7179A7-F492-4F9D-BEE6-6D1E0B012F33}">
+            <xm:f>Local!$B$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{6F1AF318-C834-489B-AA05-0095B45C2BFB}">
+            <xm:f>Local!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D2:D41</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Local!$B$3:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D41</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
